--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Model</t>
   </si>
@@ -39,10 +39,13 @@
     <t>xgb v3 (20% validation)</t>
   </si>
   <si>
-    <t>xgb v4 - location</t>
-  </si>
-  <si>
     <t>xgb v5 - meta</t>
+  </si>
+  <si>
+    <t>54.206.6.27</t>
+  </si>
+  <si>
+    <t>xgb v4 - location (20% validation)</t>
   </si>
 </sst>
 </file>
@@ -91,8 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -105,15 +116,23 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -494,11 +513,22 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.99623399999999995</v>
+      </c>
+      <c r="C5">
+        <v>0.99246800000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -46,13 +46,61 @@
   </si>
   <si>
     <t>xgb v4 - location (20% validation)</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>(with 'id' in features)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>xgb</t>
+  </si>
+  <si>
+    <t>idf features only</t>
+  </si>
+  <si>
+    <t>rounds 781</t>
+  </si>
+  <si>
+    <t>0.2/12/0.8/0.4</t>
+  </si>
+  <si>
+    <t>rounds 959</t>
+  </si>
+  <si>
+    <t>xgb scale</t>
+  </si>
+  <si>
+    <t>idf + salary</t>
+  </si>
+  <si>
+    <t>idf + user impression</t>
+  </si>
+  <si>
+    <t>idf + user click</t>
+  </si>
+  <si>
+    <t>idf + geo</t>
+  </si>
+  <si>
+    <t>idf + key word counts</t>
+  </si>
+  <si>
+    <t>xgb scale bigrams</t>
+  </si>
+  <si>
+    <t>xgb scale trigrams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,16 +124,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,8 +155,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -112,11 +189,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -125,6 +228,18 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -133,6 +248,18 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,74 +589,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.99141299999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.98282599999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="D2" s="1">
+        <v>0.97567999999999999</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.99618499999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.99236000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.99623399999999995</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.99246800000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D5" s="1">
+        <v>0.97472000000000003</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.99246000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.98492400000000002</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.99270099999999994</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.985402</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <v>0.98653100000000005</v>
       </c>
     </row>
   </sheetData>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31100" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>xgb scale trigrams</t>
+  </si>
+  <si>
+    <t>rounds 997</t>
+  </si>
+  <si>
+    <t>rounds 962</t>
   </si>
 </sst>
 </file>
@@ -171,8 +177,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -219,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -240,6 +254,10 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -260,6 +278,10 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,7 +614,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -686,6 +708,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
+    <row r="7" spans="1:8">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>12</v>
@@ -703,9 +730,6 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -717,26 +741,32 @@
       <c r="C9" s="1">
         <v>0.985402</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.98519999999999996</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1">
+        <v>0.99316199999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.98632399999999998</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -765,11 +795,18 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1">
+        <v>0.99282599999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.98565199999999997</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>rounds 962</t>
+  </si>
+  <si>
+    <t>rounds 902</t>
   </si>
 </sst>
 </file>
@@ -177,8 +180,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -233,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -258,6 +263,7 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -282,6 +288,7 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,7 +621,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -824,10 +831,19 @@
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1">
+        <v>0.99280900000000005</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.98561799999999999</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31100" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="340" windowWidth="31100" windowHeight="21920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -42,9 +42,6 @@
     <t>xgb v5 - meta</t>
   </si>
   <si>
-    <t>54.206.6.27</t>
-  </si>
-  <si>
     <t>xgb v4 - location (20% validation)</t>
   </si>
   <si>
@@ -103,13 +100,55 @@
   </si>
   <si>
     <t>rounds 902</t>
+  </si>
+  <si>
+    <t>xgb unigram + bigram</t>
+  </si>
+  <si>
+    <t>idf + salary + geo + key words</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rounds 1250</t>
+  </si>
+  <si>
+    <t>0.2/20/0.8/0.4</t>
+  </si>
+  <si>
+    <t>rounds 581</t>
+  </si>
+  <si>
+    <t>xgb unigram</t>
+  </si>
+  <si>
+    <t>xgb unigram linear</t>
+  </si>
+  <si>
+    <t>xgb unigram tree</t>
+  </si>
+  <si>
+    <t>xgb bigram linear</t>
+  </si>
+  <si>
+    <t>xgb bigram tree</t>
+  </si>
+  <si>
+    <t>xgb trigram linear</t>
+  </si>
+  <si>
+    <t>xgb trigram tree</t>
+  </si>
+  <si>
+    <t>722 - 0.2/18/0.8/0.4</t>
+  </si>
+  <si>
+    <t>??  - 0.15/22/0.8/0.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,8 +174,15 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="9"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -232,13 +278,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -264,6 +313,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -289,10 +339,16 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -618,248 +674,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.99141299999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.98282599999999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.97567999999999999</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.99618499999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.99236000000000002</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.99623399999999995</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.99246800000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.97472000000000003</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.99141299999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.98282599999999998</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.97567999999999999</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.99618499999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.99236000000000002</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.99623399999999995</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.99246800000000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.97472000000000003</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="F7" t="s">
+      <c r="B8" s="3">
+        <v>0.99246000000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.98492400000000002</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.99270099999999994</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.985402</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.99316199999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.98632399999999998</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.99282599999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.98565199999999997</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.99280900000000005</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.98561799999999999</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.99246000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.98492400000000002</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.99356299999999997</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.98712599999999995</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.99270099999999994</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.985402</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.99316199999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.98632399999999998</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.99282599999999999</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.98565199999999997</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.99280900000000005</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.98561799999999999</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>0.98675999999999997</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="19" spans="7:8">
-      <c r="G19">
-        <v>105</v>
-      </c>
-      <c r="H19">
-        <v>0.98653100000000005</v>
+      <c r="B22" s="3">
+        <v>0.99365300000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.98730600000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.98716999999999999</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.99326800000000004</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.98653599999999997</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="340" windowWidth="31100" windowHeight="21920" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="0" windowWidth="31100" windowHeight="19380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Model</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>??  - 0.15/22/0.8/0.4</t>
+  </si>
+  <si>
+    <t>xgb bigram fix1</t>
+  </si>
+  <si>
+    <t>1200 - 0.2/12/0.8/0.4</t>
+  </si>
+  <si>
+    <t>xgb bigram fix2</t>
+  </si>
+  <si>
+    <t>1045 - 0.2/16/0.8/0.4</t>
   </si>
 </sst>
 </file>
@@ -226,8 +238,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -287,7 +305,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -314,6 +332,9 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -340,6 +361,9 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1048,6 +1072,40 @@
         <v>28</v>
       </c>
     </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.99349600000000005</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.98700399999999999</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.99460800000000005</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.98921599999999998</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
